--- a/pub/Operations/OSGPKIProjectWBS/PSG_PKI_Effort.xlsx
+++ b/pub/Operations/OSGPKIProjectWBS/PSG_PKI_Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="36415" yWindow="1463" windowWidth="22326" windowHeight="12649"/>
+    <workbookView xWindow="36420" yWindow="1464" windowWidth="22332" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Von Welch</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Matyas Selmeci</t>
+  </si>
+  <si>
+    <t>Scott Tiege</t>
   </si>
 </sst>
 </file>
@@ -437,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
@@ -532,47 +535,79 @@
         <f t="shared" si="0"/>
         <v>13.435625000000002</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3" si="1">I4+H3</f>
+        <v>15.345625000000002</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3" si="2">J4+I3</f>
+        <v>15.345625000000002</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3" si="3">K4+J3</f>
+        <v>15.345625000000002</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3" si="4">L4+K3</f>
+        <v>15.345625000000002</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3" si="5">M4+L3</f>
+        <v>15.345625000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:H4" si="1">SUM(B6:B17)</f>
+        <f t="shared" ref="B4:H4" si="6">SUM(B6:B18)</f>
         <v>1.35</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.2500000000000002</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.5375000000000001</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.49125</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.2868750000000002</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.4556249999999995</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0643750000000001</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:M4" si="7">SUM(I6:I18)</f>
+        <v>1.9100000000000004</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -612,7 +647,9 @@
       <c r="H6" s="2">
         <v>0.2</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0.2</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -638,7 +675,9 @@
       <c r="H7" s="2">
         <v>0.46437499999999998</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>0.51</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -668,7 +707,9 @@
       <c r="H8" s="2">
         <v>0.2</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -698,7 +739,9 @@
       <c r="H9" s="2">
         <v>0.5</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0.35</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -728,116 +771,130 @@
       <c r="H10" s="2">
         <v>0.05</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>0.05</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>0.05</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="C12" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D12" s="2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E12" s="2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F12" s="2">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="G12" s="2">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="H12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.35</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.6</v>
+      </c>
       <c r="C13" s="2">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="2">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="E13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="2">
         <v>0.1</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.35</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
       <c r="H14" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -845,85 +902,100 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H16" s="2">
         <v>0.1</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G17" s="2">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.05</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -953,6 +1025,19 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -971,7 +1056,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -988,7 +1073,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/pub/Operations/OSGPKIProjectWBS/PSG_PKI_Effort.xlsx
+++ b/pub/Operations/OSGPKIProjectWBS/PSG_PKI_Effort.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="36420" yWindow="1464" windowWidth="22332" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -56,9 +57,6 @@
     <t>Soichi Hayashi</t>
   </si>
   <si>
-    <t>Cum Total (FTE-Months)</t>
-  </si>
-  <si>
     <t>Monthly Total FTE</t>
   </si>
   <si>
@@ -66,6 +64,9 @@
   </si>
   <si>
     <t>Scott Tiege</t>
+  </si>
+  <si>
+    <t>Cum Total FTE-Months</t>
   </si>
 </sst>
 </file>
@@ -151,6 +152,376 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.361360666921041E-2"/>
+          <c:y val="2.2463368103266303E-2"/>
+          <c:w val="0.93463896308115668"/>
+          <c:h val="0.87812425571234554"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Total FTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.49125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2868750000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4556249999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0643750000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8812500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cum Total FTE-Months</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1375000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.628750000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9156250000000021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.371250000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.435625000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.345625000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.226875000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.226875000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.226875000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.226875000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="23778816"/>
+        <c:axId val="23780352"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="23778816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="23780352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="23780352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="23778816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8661400" cy="6290733"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,201 +861,226 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
+        <f t="shared" ref="B2:M2" si="0">SUM(B5:B17)</f>
+        <v>1.35</v>
+      </c>
+      <c r="C2" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5375000000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" si="0"/>
+        <v>2.49125</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2868750000000002</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4556249999999995</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0643750000000001</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9100000000000004</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8812500000000001</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
-        <f>B4</f>
+        <f>B2</f>
         <v>1.35</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:H3" si="0">C4+B3</f>
+        <f t="shared" ref="C3:M3" si="1">C2+B3</f>
         <v>2.6000000000000005</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1375000000000011</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.628750000000001</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9156250000000021</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.371250000000002</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.435625000000002</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3" si="1">I4+H3</f>
+        <f t="shared" si="1"/>
         <v>15.345625000000002</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3" si="2">J4+I3</f>
-        <v>15.345625000000002</v>
+        <f t="shared" si="1"/>
+        <v>17.226875000000003</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3" si="3">K4+J3</f>
-        <v>15.345625000000002</v>
+        <f t="shared" si="1"/>
+        <v>17.226875000000003</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3" si="4">L4+K3</f>
-        <v>15.345625000000002</v>
+        <f t="shared" si="1"/>
+        <v>17.226875000000003</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3" si="5">M4+L3</f>
-        <v>15.345625000000002</v>
+        <f t="shared" si="1"/>
+        <v>17.226875000000003</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4">
-        <f t="shared" ref="B4:H4" si="6">SUM(B6:B18)</f>
-        <v>1.35</v>
-      </c>
-      <c r="C4" s="4">
-        <f t="shared" si="6"/>
-        <v>1.2500000000000002</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="6"/>
-        <v>1.5375000000000001</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="6"/>
-        <v>2.49125</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="6"/>
-        <v>2.2868750000000002</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4556249999999995</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="6"/>
-        <v>2.0643750000000001</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:M4" si="7">SUM(I6:I18)</f>
-        <v>1.9100000000000004</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.2</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>0.2</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>0.2</v>
+        <v>0.74124999999999996</v>
       </c>
       <c r="F6" s="2">
-        <v>0.2</v>
+        <v>0.63687500000000008</v>
       </c>
       <c r="G6" s="2">
-        <v>0.2</v>
+        <v>0.55562500000000004</v>
       </c>
       <c r="H6" s="2">
-        <v>0.2</v>
+        <v>0.46437499999999998</v>
       </c>
       <c r="I6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>0.51</v>
+      </c>
+      <c r="J6" s="2">
+        <f>141/160</f>
+        <v>0.88124999999999998</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.2</v>
+      </c>
       <c r="D7" s="2">
-        <v>0.23749999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="2">
-        <v>0.74124999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="2">
-        <v>0.63687500000000008</v>
+        <v>0.2</v>
       </c>
       <c r="G7" s="2">
-        <v>0.55562500000000004</v>
+        <v>0.2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.46437499999999998</v>
+        <v>0.2</v>
       </c>
       <c r="I7" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="J7" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>0.2</v>
@@ -693,208 +1089,212 @@
         <v>0.2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E8" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F8" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G8" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H8" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.15</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C9" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D9" s="2">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="2">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="F9" s="2">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="G9" s="2">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="H9" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="I9" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.05</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.05</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>0.05</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>0.05</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.3</v>
+      </c>
       <c r="I11" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.25</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="H12" s="2">
         <v>0.1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.3</v>
       </c>
       <c r="I12" s="2">
         <v>0.35</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>0.2</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="D13" s="2">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="E13" s="2">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G13" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.05</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -902,29 +1302,41 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H15" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.2</v>
+      </c>
       <c r="G16" s="2">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="H16" s="2">
         <v>0.1</v>
@@ -932,70 +1344,55 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>0.05</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F17" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H17" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.05</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.05</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1025,19 +1422,6 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pub/Operations/OSGPKIProjectWBS/PSG_PKI_Effort.xlsx
+++ b/pub/Operations/OSGPKIProjectWBS/PSG_PKI_Effort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="36420" yWindow="1464" windowWidth="22332" windowHeight="12648"/>
+    <workbookView xWindow="36420" yWindow="1464" windowWidth="22344" windowHeight="12636"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Von Welch</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Cum Total FTE-Months</t>
+  </si>
+  <si>
+    <t>Viplav Khadke</t>
   </si>
 </sst>
 </file>
@@ -175,10 +178,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.361360666921041E-2"/>
-          <c:y val="2.2463368103266303E-2"/>
-          <c:w val="0.93463896308115668"/>
-          <c:h val="0.87812425571234554"/>
+          <c:x val="5.3613606669210397E-2"/>
+          <c:y val="2.2463368103266299E-2"/>
+          <c:w val="0.93463896308115701"/>
+          <c:h val="0.87812425571234498"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -271,16 +274,16 @@
                   <c:v>2.4556249999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0643750000000001</c:v>
+                  <c:v>2.1218750000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9100000000000004</c:v>
+                  <c:v>2.2168749999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8812500000000001</c:v>
+                  <c:v>2.2824999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.4818749999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -390,22 +393,22 @@
                   <c:v>11.371250000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.435625000000002</c:v>
+                  <c:v>13.493125000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.345625000000002</c:v>
+                  <c:v>15.710000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.226875000000003</c:v>
+                  <c:v>17.992500000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.226875000000003</c:v>
+                  <c:v>20.474375000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.226875000000003</c:v>
+                  <c:v>20.474375000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.226875000000003</c:v>
+                  <c:v>20.474375000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,11 +425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="23778816"/>
-        <c:axId val="23780352"/>
+        <c:axId val="28038656"/>
+        <c:axId val="28040192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="23778816"/>
+        <c:axId val="28038656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,14 +439,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="23780352"/>
+        <c:crossAx val="28040192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="23780352"/>
+        <c:axId val="28040192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="23778816"/>
+        <c:crossAx val="28038656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -490,7 +493,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -501,7 +504,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6290733"/>
+    <xdr:ext cx="8654716" cy="6272463"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -811,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:M2" si="0">SUM(B5:B17)</f>
+        <f t="shared" ref="B2:M2" si="0">SUM(B5:B18)</f>
         <v>1.35</v>
       </c>
       <c r="C2" s="4">
@@ -890,19 +893,19 @@
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>2.0643750000000001</v>
+        <v>2.1218750000000002</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>1.9100000000000004</v>
+        <v>2.2168749999999999</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>1.8812500000000001</v>
+        <v>2.2824999999999998</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4818749999999996</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
@@ -943,27 +946,27 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>13.435625000000002</v>
+        <v>13.493125000000003</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="1"/>
-        <v>15.345625000000002</v>
+        <v>15.710000000000003</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="1"/>
-        <v>17.226875000000003</v>
+        <v>17.992500000000003</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" si="1"/>
-        <v>17.226875000000003</v>
+        <v>20.474375000000002</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" si="1"/>
-        <v>17.226875000000003</v>
+        <v>20.474375000000002</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" si="1"/>
-        <v>17.226875000000003</v>
+        <v>20.474375000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1010,7 +1013,9 @@
       <c r="J5" s="2">
         <v>0.2</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>0.2</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1041,46 +1046,38 @@
         <f>141/160</f>
         <v>0.88124999999999998</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>0.56374999999999997</v>
+      </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2">
-        <v>0.2</v>
+        <v>5.7499999999999996E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>0.30687500000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>0.40125</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.698125</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>0.2</v>
@@ -1089,199 +1086,221 @@
         <v>0.2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H8" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="2">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D9" s="2">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="E9" s="2">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="2">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="G9" s="2">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="H9" s="2">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="I9" s="2">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="J9" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.15</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.05</v>
+      </c>
       <c r="I10" s="2">
         <v>0.05</v>
       </c>
       <c r="J10" s="2">
         <v>0.05</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>0.05</v>
+      </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="J11" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.05</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="C12" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D12" s="2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E12" s="2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F12" s="2">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="G12" s="2">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="H12" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I12" s="2">
         <v>0.35</v>
       </c>
       <c r="J12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.4</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C13" s="2">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="2">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="E13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="2">
         <v>0.1</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.3</v>
+      </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.05</v>
+      </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -1289,12 +1308,14 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1302,10 +1323,10 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -1313,30 +1334,22 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H16" s="2">
         <v>0.1</v>
@@ -1345,56 +1358,83 @@
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.02</v>
+      </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1422,6 +1462,19 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pub/Operations/OSGPKIProjectWBS/PSG_PKI_Effort.xlsx
+++ b/pub/Operations/OSGPKIProjectWBS/PSG_PKI_Effort.xlsx
@@ -4,13 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="36420" yWindow="1464" windowWidth="22344" windowHeight="12636"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -130,8 +128,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -142,9 +144,13 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -286,10 +292,10 @@
                   <c:v>2.4818749999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.6675000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.6187500000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,10 +411,10 @@
                   <c:v>20.474375000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.474375000000002</c:v>
+                  <c:v>22.141875000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.474375000000002</c:v>
+                  <c:v>23.760625000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,11 +431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="28038656"/>
-        <c:axId val="28040192"/>
+        <c:axId val="80244736"/>
+        <c:axId val="80246272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="28038656"/>
+        <c:axId val="80244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,14 +445,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="28040192"/>
+        <c:crossAx val="80246272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="28040192"/>
+        <c:axId val="80246272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="28038656"/>
+        <c:crossAx val="80244736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -493,7 +499,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -504,7 +510,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8654716" cy="6272463"/>
+    <xdr:ext cx="8664677" cy="6292645"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -817,7 +823,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,11 +915,11 @@
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6675000000000002</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6187500000000004</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -962,11 +968,11 @@
       </c>
       <c r="L3" s="3">
         <f t="shared" si="1"/>
-        <v>20.474375000000002</v>
+        <v>22.141875000000002</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" si="1"/>
-        <v>20.474375000000002</v>
+        <v>23.760625000000005</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1016,7 +1022,12 @@
       <c r="K5" s="2">
         <v>0.2</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1049,7 +1060,12 @@
       <c r="K6" s="2">
         <v>0.56374999999999997</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <v>0.29312499999999997</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1073,7 +1089,12 @@
       <c r="K7" s="2">
         <v>0.698125</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>0.45437500000000003</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.53875000000000006</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1109,7 +1130,12 @@
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1145,7 +1171,12 @@
       <c r="K9" s="2">
         <v>0.15</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1181,7 +1212,12 @@
       <c r="K10" s="2">
         <v>0.05</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1203,7 +1239,12 @@
       <c r="K11" s="2">
         <v>0.05</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1239,7 +1280,12 @@
       <c r="K12" s="2">
         <v>0.4</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1275,7 +1321,12 @@
       <c r="K13" s="2">
         <v>0.3</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1311,7 +1362,12 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1337,7 +1393,12 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1363,9 +1424,14 @@
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L16" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1399,9 +1465,14 @@
       <c r="K17" s="2">
         <v>0.05</v>
       </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1435,9 +1506,14 @@
       <c r="K18" s="2">
         <v>0.02</v>
       </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1450,7 +1526,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1463,7 +1539,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1485,38 +1561,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>